--- a/01_doc/test_design/测试计划.xlsx
+++ b/01_doc/test_design/测试计划.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\99_Training Proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niesu\Documents\GitHub\cuoxiazi\cuoxiazi\01_doc\test_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,9 +13,11 @@
   </bookViews>
   <sheets>
     <sheet name="测试计划" sheetId="1" r:id="rId1"/>
-    <sheet name="测试用例" sheetId="2" r:id="rId2"/>
-    <sheet name="测试数据" sheetId="4" r:id="rId3"/>
-    <sheet name="测试执行记录" sheetId="3" r:id="rId4"/>
+    <sheet name="测试环境信息" sheetId="7" r:id="rId2"/>
+    <sheet name="测试用例" sheetId="2" r:id="rId3"/>
+    <sheet name="测试数据" sheetId="4" r:id="rId4"/>
+    <sheet name="测试执行记录" sheetId="3" r:id="rId5"/>
+    <sheet name="Lookuplist" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
   <si>
     <t>测试阶段</t>
   </si>
@@ -150,6 +152,120 @@
   </si>
   <si>
     <t>缺陷跟踪文档</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>测试步骤</t>
+  </si>
+  <si>
+    <t>用例名字</t>
+  </si>
+  <si>
+    <t>测试模块</t>
+  </si>
+  <si>
+    <t>用户管理</t>
+  </si>
+  <si>
+    <t>会员管理</t>
+  </si>
+  <si>
+    <t>菜单管理</t>
+  </si>
+  <si>
+    <t>菜单浏览</t>
+  </si>
+  <si>
+    <t>点菜下单</t>
+  </si>
+  <si>
+    <t>收银结账</t>
+  </si>
+  <si>
+    <t>流水管理</t>
+  </si>
+  <si>
+    <t>用户角色</t>
+  </si>
+  <si>
+    <t>点菜服务员</t>
+  </si>
+  <si>
+    <t>菜品管理员</t>
+  </si>
+  <si>
+    <t>系统管理员</t>
+  </si>
+  <si>
+    <t>测试环境</t>
+  </si>
+  <si>
+    <t>Win7+IE11</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>测试用例</t>
+  </si>
+  <si>
+    <t>测试时间</t>
+  </si>
+  <si>
+    <t>对应defect</t>
+  </si>
+  <si>
+    <t>测试结果</t>
+  </si>
+  <si>
+    <t>No Run</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>测试状态</t>
+  </si>
+  <si>
+    <t>测试Set</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>测试用例状态</t>
+  </si>
+  <si>
+    <t>Ready for Review</t>
+  </si>
+  <si>
+    <t>Ready forTesting</t>
+  </si>
+  <si>
+    <t>Started</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>系统集成</t>
+  </si>
+  <si>
+    <t>测试环境：</t>
+  </si>
+  <si>
+    <t>搭建环境要点：</t>
   </si>
 </sst>
 </file>
@@ -290,19 +406,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -314,8 +424,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,7 +784,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,7 +821,7 @@
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -722,8 +838,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
@@ -738,10 +854,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -758,8 +874,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
@@ -774,8 +890,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
@@ -790,13 +906,13 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -810,8 +926,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
@@ -826,8 +942,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
@@ -876,10 +992,222 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" customWidth="1"/>
+    <col min="5" max="5" width="93.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Lookuplist!$A$2:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Lookuplist!$B$2:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,30 +1216,166 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="64.28515625" customWidth="1"/>
+    <col min="3" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Lookuplist!$E$2:$E$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>